--- a/middleProject/sellingInfo.xlsx
+++ b/middleProject/sellingInfo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>판매날짜</t>
   </si>
@@ -20,12 +20,12 @@
     <t>상품명</t>
   </si>
   <si>
-    <t>가격</t>
-  </si>
-  <si>
     <t>수량</t>
   </si>
   <si>
+    <t>결제금액</t>
+  </si>
+  <si>
     <t>04-28</t>
   </si>
   <si>
@@ -41,13 +41,16 @@
     <t>초코우유</t>
   </si>
   <si>
-    <t>ㅇㄹㄷ</t>
-  </si>
-  <si>
-    <t>ㄷㄱ</t>
-  </si>
-  <si>
-    <t>ㄷㄱㅈ</t>
+    <t>05-05</t>
+  </si>
+  <si>
+    <t>제로콜라</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3900</t>
   </si>
 </sst>
 </file>
@@ -162,10 +165,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="D5" t="n">
-        <v>13600.0</v>
+        <v>3100.0</v>
       </c>
     </row>
     <row r="6">
@@ -193,7 +196,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
